--- a/Data/GDIT - WD History at GDIT sites.xlsx
+++ b/Data/GDIT - WD History at GDIT sites.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorhafley/Desktop/school/sideProjects/cwa/cwa/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6837AF6B-576F-D34C-92BE-2D1A0A6C13C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="17220" windowHeight="7356"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="14760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$98</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="268">
   <si>
     <t>Customer Service Representative I</t>
   </si>
@@ -311,13 +317,526 @@
   </si>
   <si>
     <t>CSR III</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>scawd15</t>
+  </si>
+  <si>
+    <t>gc1</t>
+  </si>
+  <si>
+    <t>gc2</t>
+  </si>
+  <si>
+    <t>gc3</t>
+  </si>
+  <si>
+    <t>csr1</t>
+  </si>
+  <si>
+    <t>csr2</t>
+  </si>
+  <si>
+    <t>csr3</t>
+  </si>
+  <si>
+    <t>date of revision</t>
+  </si>
+  <si>
+    <t>wd#</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>2015-5261</t>
+  </si>
+  <si>
+    <t>Falls</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Limestone</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Bosque</t>
+  </si>
+  <si>
+    <t>Coryell</t>
+  </si>
+  <si>
+    <t>Freestone</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>2015-5295</t>
+  </si>
+  <si>
+    <t>2015-5237</t>
+  </si>
+  <si>
+    <t>2015-5219</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Willacy</t>
+  </si>
+  <si>
+    <t>Jimm Hogg</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Zapata</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>2015-5245</t>
+  </si>
+  <si>
+    <t>2015-5309</t>
+  </si>
+  <si>
+    <t>2015-4313</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Charles City</t>
+  </si>
+  <si>
+    <t>Dinwiddie</t>
+  </si>
+  <si>
+    <t>Goochland</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>Henrico</t>
+  </si>
+  <si>
+    <t>King William</t>
+  </si>
+  <si>
+    <t>New Kent</t>
+  </si>
+  <si>
+    <t>Powhatan</t>
+  </si>
+  <si>
+    <t>Prince George</t>
+  </si>
+  <si>
+    <t>Sussex</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Surry</t>
+  </si>
+  <si>
+    <t>James City</t>
+  </si>
+  <si>
+    <t>King and Queen</t>
+  </si>
+  <si>
+    <t>Spotsylvania</t>
+  </si>
+  <si>
+    <t>Louisa</t>
+  </si>
+  <si>
+    <t>Fluvanna</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Prince Edward</t>
+  </si>
+  <si>
+    <t>Nottoway</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Greensville</t>
+  </si>
+  <si>
+    <t>Lunenburg</t>
+  </si>
+  <si>
+    <t>Mecklenberg</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Currituck</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Gloucester</t>
+  </si>
+  <si>
+    <t>Chesapeake</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Newport News</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>Williamsburg</t>
+  </si>
+  <si>
+    <t>Isle of Wight</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>2015-4323</t>
+  </si>
+  <si>
+    <t>2015-4341</t>
+  </si>
+  <si>
+    <t>2015-4321</t>
+  </si>
+  <si>
+    <t>2015-5837</t>
+  </si>
+  <si>
+    <t>Fredricksburg City</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Albemarle</t>
+  </si>
+  <si>
+    <t>Buckingham</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Middlesex</t>
+  </si>
+  <si>
+    <t>Northumberland</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Westmoreland</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>2015-4287</t>
+  </si>
+  <si>
+    <t>2015-4335</t>
+  </si>
+  <si>
+    <t>2015-4303</t>
+  </si>
+  <si>
+    <t>2015-4331</t>
+  </si>
+  <si>
+    <t>Tooele</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>Wasatch</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Box Elder</t>
+  </si>
+  <si>
+    <t>Piute</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Juab</t>
+  </si>
+  <si>
+    <t>2015-5489</t>
+  </si>
+  <si>
+    <t>2015-5483</t>
+  </si>
+  <si>
+    <t>2015-5491</t>
+  </si>
+  <si>
+    <t>2015-5485</t>
+  </si>
+  <si>
+    <t>2015-5447</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>2015-5461</t>
+  </si>
+  <si>
+    <t>2015-5455</t>
+  </si>
+  <si>
+    <t>Fayette</t>
+  </si>
+  <si>
+    <t>Jessamine</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Woodford</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>2015-4683</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Menifee</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Rockcastle</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Estill</t>
+  </si>
+  <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Garrard</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>2015-4701</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Whitley</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>McCreary</t>
+  </si>
+  <si>
+    <t>Pulaski</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>2015-4695</t>
+  </si>
+  <si>
+    <t>Breathitt</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Harlan</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Knott</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Letcher</t>
+  </si>
+  <si>
+    <t>Owsley</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Wolfe</t>
+  </si>
+  <si>
+    <t>2015-4707</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>facility2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +873,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +890,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -480,6 +1011,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -492,6 +1034,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -540,7 +1085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,9 +1118,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,6 +1170,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,60 +1362,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -886,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -928,7 +1507,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -970,7 +1549,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1591,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1633,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1096,7 +1675,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1717,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1172,7 +1751,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1206,7 +1785,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1819,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1290,7 +1869,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1919,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1969,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +2011,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +2053,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +2095,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +2133,7 @@
         <v>39647</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +2171,7 @@
         <v>39647</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +2209,7 @@
         <v>39647</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1664,7 +2243,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1698,7 +2277,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1732,7 +2311,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1774,7 +2353,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +2395,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +2437,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1892,7 +2471,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1926,7 +2505,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1960,7 +2539,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +2589,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2639,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2110,7 +2689,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +2731,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2194,7 +2773,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +2815,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2286,7 +2865,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -2336,7 +2915,7 @@
         <v>40393</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -2370,7 +2949,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2983,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2438,7 +3017,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2472,7 +3051,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -2514,7 +3093,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -2564,7 +3143,7 @@
         <v>40280</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2614,7 +3193,7 @@
         <v>40280</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -2648,7 +3227,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2682,7 +3261,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2716,7 +3295,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2750,7 +3329,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2784,7 +3363,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2818,7 +3397,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +3439,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -2902,7 +3481,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -2944,7 +3523,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -2994,7 +3573,7 @@
         <v>38973</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3044,7 +3623,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -3094,7 +3673,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -3136,7 +3715,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
@@ -3178,7 +3757,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -3220,7 +3799,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
@@ -3262,7 +3841,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
@@ -3304,7 +3883,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
@@ -3346,7 +3925,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3388,7 +3967,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -3430,7 +4009,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -3472,7 +4051,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
@@ -3522,7 +4101,7 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -3572,7 +4151,7 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -3622,7 +4201,7 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
@@ -3664,7 +4243,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -3706,7 +4285,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
@@ -3748,7 +4327,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -3798,7 +4377,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -3848,7 +4427,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>65</v>
       </c>
@@ -3898,7 +4477,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -3932,7 +4511,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -3966,7 +4545,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
@@ -4000,7 +4579,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>70</v>
       </c>
@@ -4050,7 +4629,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -4100,7 +4679,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>70</v>
       </c>
@@ -4150,7 +4729,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
@@ -4192,7 +4771,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>75</v>
       </c>
@@ -4234,7 +4813,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>75</v>
       </c>
@@ -4276,7 +4855,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>75</v>
       </c>
@@ -4326,7 +4905,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>75</v>
       </c>
@@ -4376,7 +4955,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>75</v>
       </c>
@@ -4426,7 +5005,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
@@ -4460,7 +5039,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>80</v>
       </c>
@@ -4494,7 +5073,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
@@ -4528,7 +5107,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -4578,7 +5157,7 @@
         <v>40416</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>80</v>
       </c>
@@ -4628,7 +5207,7 @@
         <v>40416</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>80</v>
       </c>
@@ -4662,7 +5241,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -4696,7 +5275,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>86</v>
       </c>
@@ -4730,7 +5309,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>86</v>
       </c>
@@ -4764,7 +5343,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>86</v>
       </c>
@@ -4814,7 +5393,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>86</v>
       </c>
@@ -4856,7 +5435,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>86</v>
       </c>
@@ -4907,7 +5486,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P98"/>
+  <autoFilter ref="A2:P98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -4923,25 +5502,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G1" s="9" t="s">
         <v>92</v>
       </c>
@@ -4949,7 +5528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13" t="s">
         <v>94</v>
       </c>
@@ -4973,7 +5552,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
         <v>95</v>
       </c>
@@ -4997,7 +5576,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
         <v>96</v>
       </c>
@@ -5021,25 +5600,25 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f>E3-B2</f>
         <v>1.7699999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f>E4-B2</f>
         <v>3.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f>B3-B2</f>
         <v>1.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
@@ -5047,7 +5626,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="20"/>
       <c r="G14" s="2" t="s">
@@ -5057,7 +5636,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G15" s="2" t="s">
         <v>2</v>
       </c>
@@ -5065,11 +5644,11 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G17" s="2" t="s">
         <v>3</v>
       </c>
@@ -5077,7 +5656,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
@@ -5085,7 +5664,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G19" s="2" t="s">
         <v>5</v>
       </c>
@@ -5099,13 +5678,6402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A145"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="22">
+        <v>5261</v>
+      </c>
+      <c r="D2" s="22">
+        <v>11.96</v>
+      </c>
+      <c r="E2" s="22">
+        <v>12.55</v>
+      </c>
+      <c r="F2" s="22">
+        <v>14.07</v>
+      </c>
+      <c r="G2" s="22">
+        <v>10.98</v>
+      </c>
+      <c r="H2" s="22">
+        <v>12.35</v>
+      </c>
+      <c r="I2" s="22">
+        <v>13.48</v>
+      </c>
+      <c r="J2" s="24">
+        <v>42808</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="22">
+        <v>1</v>
+      </c>
+      <c r="M2" s="22">
+        <v>1</v>
+      </c>
+      <c r="N2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="22">
+        <v>5261</v>
+      </c>
+      <c r="D3">
+        <v>11.96</v>
+      </c>
+      <c r="E3">
+        <v>12.55</v>
+      </c>
+      <c r="F3">
+        <v>14.07</v>
+      </c>
+      <c r="G3">
+        <v>10.98</v>
+      </c>
+      <c r="H3">
+        <v>12.35</v>
+      </c>
+      <c r="I3">
+        <v>13.48</v>
+      </c>
+      <c r="J3" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>5237</v>
+      </c>
+      <c r="D4">
+        <v>10.55</v>
+      </c>
+      <c r="E4">
+        <v>12.92</v>
+      </c>
+      <c r="F4">
+        <v>14.5</v>
+      </c>
+      <c r="G4">
+        <v>10.25</v>
+      </c>
+      <c r="H4">
+        <v>11.53</v>
+      </c>
+      <c r="I4">
+        <v>12.58</v>
+      </c>
+      <c r="J4" s="23">
+        <v>42705</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>5237</v>
+      </c>
+      <c r="D5">
+        <v>10.55</v>
+      </c>
+      <c r="E5">
+        <v>12.92</v>
+      </c>
+      <c r="F5">
+        <v>14.5</v>
+      </c>
+      <c r="G5">
+        <v>10.25</v>
+      </c>
+      <c r="H5">
+        <v>11.53</v>
+      </c>
+      <c r="I5">
+        <v>12.58</v>
+      </c>
+      <c r="J5" s="23">
+        <v>42705</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>5295</v>
+      </c>
+      <c r="D6">
+        <v>11.46</v>
+      </c>
+      <c r="E6">
+        <v>12.55</v>
+      </c>
+      <c r="F6">
+        <v>14.06</v>
+      </c>
+      <c r="G6">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H6">
+        <v>11.4</v>
+      </c>
+      <c r="I6">
+        <v>12.44</v>
+      </c>
+      <c r="J6" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>5295</v>
+      </c>
+      <c r="D7">
+        <v>11.46</v>
+      </c>
+      <c r="E7">
+        <v>12.55</v>
+      </c>
+      <c r="F7">
+        <v>14.06</v>
+      </c>
+      <c r="G7">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H7">
+        <v>11.4</v>
+      </c>
+      <c r="I7">
+        <v>12.44</v>
+      </c>
+      <c r="J7" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>5295</v>
+      </c>
+      <c r="D8">
+        <v>11.46</v>
+      </c>
+      <c r="E8">
+        <v>12.55</v>
+      </c>
+      <c r="F8">
+        <v>14.06</v>
+      </c>
+      <c r="G8">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H8">
+        <v>11.4</v>
+      </c>
+      <c r="I8">
+        <v>12.44</v>
+      </c>
+      <c r="J8" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>5295</v>
+      </c>
+      <c r="D9">
+        <v>11.46</v>
+      </c>
+      <c r="E9">
+        <v>12.55</v>
+      </c>
+      <c r="F9">
+        <v>14.06</v>
+      </c>
+      <c r="G9">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H9">
+        <v>11.4</v>
+      </c>
+      <c r="I9">
+        <v>12.44</v>
+      </c>
+      <c r="J9" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>5295</v>
+      </c>
+      <c r="D10">
+        <v>11.46</v>
+      </c>
+      <c r="E10">
+        <v>12.55</v>
+      </c>
+      <c r="F10">
+        <v>14.06</v>
+      </c>
+      <c r="G10">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H10">
+        <v>11.4</v>
+      </c>
+      <c r="I10">
+        <v>12.44</v>
+      </c>
+      <c r="J10" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>5295</v>
+      </c>
+      <c r="D11">
+        <v>11.46</v>
+      </c>
+      <c r="E11">
+        <v>12.55</v>
+      </c>
+      <c r="F11">
+        <v>14.06</v>
+      </c>
+      <c r="G11">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H11">
+        <v>11.4</v>
+      </c>
+      <c r="I11">
+        <v>12.44</v>
+      </c>
+      <c r="J11" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>5295</v>
+      </c>
+      <c r="D12">
+        <v>11.46</v>
+      </c>
+      <c r="E12">
+        <v>12.55</v>
+      </c>
+      <c r="F12">
+        <v>14.06</v>
+      </c>
+      <c r="G12">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H12">
+        <v>11.4</v>
+      </c>
+      <c r="I12">
+        <v>12.44</v>
+      </c>
+      <c r="J12" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="22">
+        <v>5219</v>
+      </c>
+      <c r="D13" s="22">
+        <v>11.23</v>
+      </c>
+      <c r="E13" s="22">
+        <v>12.28</v>
+      </c>
+      <c r="F13" s="22">
+        <v>13.77</v>
+      </c>
+      <c r="G13" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="H13" s="22">
+        <v>10.79</v>
+      </c>
+      <c r="I13" s="22">
+        <v>11.78</v>
+      </c>
+      <c r="J13" s="24">
+        <v>42475</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="22">
+        <v>1</v>
+      </c>
+      <c r="M13" s="22">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>5245</v>
+      </c>
+      <c r="D14">
+        <v>10.62</v>
+      </c>
+      <c r="E14">
+        <v>11.6</v>
+      </c>
+      <c r="F14">
+        <v>13.03</v>
+      </c>
+      <c r="G14">
+        <v>10.17</v>
+      </c>
+      <c r="H14">
+        <v>11.44</v>
+      </c>
+      <c r="I14">
+        <v>12.49</v>
+      </c>
+      <c r="J14" s="23">
+        <v>42788</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>5309</v>
+      </c>
+      <c r="D15">
+        <v>11.23</v>
+      </c>
+      <c r="E15">
+        <v>12.28</v>
+      </c>
+      <c r="F15">
+        <v>13.77</v>
+      </c>
+      <c r="G15">
+        <v>11.41</v>
+      </c>
+      <c r="H15">
+        <v>12.82</v>
+      </c>
+      <c r="I15">
+        <v>13.99</v>
+      </c>
+      <c r="J15" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>5309</v>
+      </c>
+      <c r="D16">
+        <v>11.23</v>
+      </c>
+      <c r="E16">
+        <v>12.28</v>
+      </c>
+      <c r="F16">
+        <v>13.77</v>
+      </c>
+      <c r="G16">
+        <v>11.41</v>
+      </c>
+      <c r="H16">
+        <v>12.82</v>
+      </c>
+      <c r="I16">
+        <v>13.99</v>
+      </c>
+      <c r="J16" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>5309</v>
+      </c>
+      <c r="D17">
+        <v>11.23</v>
+      </c>
+      <c r="E17">
+        <v>12.28</v>
+      </c>
+      <c r="F17">
+        <v>13.77</v>
+      </c>
+      <c r="G17">
+        <v>11.41</v>
+      </c>
+      <c r="H17">
+        <v>12.82</v>
+      </c>
+      <c r="I17">
+        <v>13.99</v>
+      </c>
+      <c r="J17" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>5309</v>
+      </c>
+      <c r="D18">
+        <v>11.23</v>
+      </c>
+      <c r="E18">
+        <v>12.28</v>
+      </c>
+      <c r="F18">
+        <v>13.77</v>
+      </c>
+      <c r="G18">
+        <v>11.41</v>
+      </c>
+      <c r="H18">
+        <v>12.82</v>
+      </c>
+      <c r="I18">
+        <v>13.99</v>
+      </c>
+      <c r="J18" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>5309</v>
+      </c>
+      <c r="D19">
+        <v>11.23</v>
+      </c>
+      <c r="E19">
+        <v>12.28</v>
+      </c>
+      <c r="F19">
+        <v>13.77</v>
+      </c>
+      <c r="G19">
+        <v>11.41</v>
+      </c>
+      <c r="H19">
+        <v>12.82</v>
+      </c>
+      <c r="I19">
+        <v>13.99</v>
+      </c>
+      <c r="J19" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>5309</v>
+      </c>
+      <c r="D20">
+        <v>11.23</v>
+      </c>
+      <c r="E20">
+        <v>12.28</v>
+      </c>
+      <c r="F20">
+        <v>13.77</v>
+      </c>
+      <c r="G20">
+        <v>11.41</v>
+      </c>
+      <c r="H20">
+        <v>12.82</v>
+      </c>
+      <c r="I20">
+        <v>13.99</v>
+      </c>
+      <c r="J20" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>5309</v>
+      </c>
+      <c r="D21">
+        <v>11.23</v>
+      </c>
+      <c r="E21">
+        <v>12.28</v>
+      </c>
+      <c r="F21">
+        <v>13.77</v>
+      </c>
+      <c r="G21">
+        <v>11.41</v>
+      </c>
+      <c r="H21">
+        <v>12.82</v>
+      </c>
+      <c r="I21">
+        <v>13.99</v>
+      </c>
+      <c r="J21" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D22" s="22">
+        <v>13.05</v>
+      </c>
+      <c r="E22" s="22">
+        <v>14.23</v>
+      </c>
+      <c r="F22" s="22">
+        <v>17.46</v>
+      </c>
+      <c r="G22" s="22">
+        <v>13.3</v>
+      </c>
+      <c r="H22" s="22">
+        <v>14.96</v>
+      </c>
+      <c r="I22" s="22">
+        <v>16.32</v>
+      </c>
+      <c r="J22" s="24">
+        <v>42811</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D23" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E23" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F23" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G23" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H23" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I23" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J23" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="25">
+        <v>1</v>
+      </c>
+      <c r="M23" s="25">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D24" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E24" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F24" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G24" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H24" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I24" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J24" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="25">
+        <v>1</v>
+      </c>
+      <c r="M24" s="25">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D25" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E25" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F25" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G25" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H25" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I25" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J25" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D26" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E26" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F26" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G26" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H26" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I26" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J26" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="25">
+        <v>1</v>
+      </c>
+      <c r="M26" s="25">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D27" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E27" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F27" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G27" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H27" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I27" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J27" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="25">
+        <v>1</v>
+      </c>
+      <c r="M27" s="25">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D28" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E28" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F28" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G28" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H28" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I28" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J28" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="25">
+        <v>1</v>
+      </c>
+      <c r="M28" s="25">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D29" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E29" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F29" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G29" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H29" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I29" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J29" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="25">
+        <v>1</v>
+      </c>
+      <c r="M29" s="25">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D30" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E30" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F30" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G30" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H30" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I30" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J30" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="25">
+        <v>1</v>
+      </c>
+      <c r="M30" s="25">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D31" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E31" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F31" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G31" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H31" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I31" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J31" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="25">
+        <v>1</v>
+      </c>
+      <c r="M31" s="25">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D32" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E32" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F32" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G32" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H32" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I32" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J32" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="25">
+        <v>1</v>
+      </c>
+      <c r="M32" s="25">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D33" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E33" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F33" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G33" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H33" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I33" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J33" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="25">
+        <v>1</v>
+      </c>
+      <c r="M33" s="25">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22">
+        <v>4313</v>
+      </c>
+      <c r="D34" s="25">
+        <v>13.05</v>
+      </c>
+      <c r="E34" s="25">
+        <v>14.23</v>
+      </c>
+      <c r="F34" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G34" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="H34" s="25">
+        <v>14.96</v>
+      </c>
+      <c r="I34" s="25">
+        <v>16.32</v>
+      </c>
+      <c r="J34" s="26">
+        <v>42811</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="25">
+        <v>1</v>
+      </c>
+      <c r="M34" s="25">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="25">
+        <v>4323</v>
+      </c>
+      <c r="D35" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E35" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F35" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G35" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H35" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I35" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J35" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35" s="25">
+        <v>2</v>
+      </c>
+      <c r="M35" s="25">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="25">
+        <v>4323</v>
+      </c>
+      <c r="D36" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E36" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F36" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G36" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H36" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I36" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J36" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" s="25">
+        <v>2</v>
+      </c>
+      <c r="M36" s="25">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="25">
+        <v>4323</v>
+      </c>
+      <c r="D37" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E37" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F37" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G37" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H37" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I37" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J37" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37" s="25">
+        <v>2</v>
+      </c>
+      <c r="M37" s="25">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>4323</v>
+      </c>
+      <c r="D38" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E38" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F38" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G38" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H38" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I38" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J38" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38" s="25">
+        <v>2</v>
+      </c>
+      <c r="M38" s="25">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>4323</v>
+      </c>
+      <c r="D39" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E39" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F39" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G39" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H39" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I39" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J39" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="25">
+        <v>2</v>
+      </c>
+      <c r="M39" s="25">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>4323</v>
+      </c>
+      <c r="D40" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E40" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F40" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G40" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H40" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I40" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J40" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L40" s="25">
+        <v>2</v>
+      </c>
+      <c r="M40" s="25">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>4323</v>
+      </c>
+      <c r="D41" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E41" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F41" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G41" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H41" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I41" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J41" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L41" s="25">
+        <v>2</v>
+      </c>
+      <c r="M41" s="25">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>4323</v>
+      </c>
+      <c r="D42" s="25">
+        <v>12.06</v>
+      </c>
+      <c r="E42" s="25">
+        <v>13.27</v>
+      </c>
+      <c r="F42" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G42" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H42" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I42" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J42" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L42" s="25">
+        <v>2</v>
+      </c>
+      <c r="M42" s="25">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>4321</v>
+      </c>
+      <c r="D43" s="25">
+        <v>12.08</v>
+      </c>
+      <c r="E43" s="25">
+        <v>13.78</v>
+      </c>
+      <c r="F43" s="25">
+        <v>15.47</v>
+      </c>
+      <c r="G43" s="25">
+        <v>10.55</v>
+      </c>
+      <c r="H43" s="25">
+        <v>11.87</v>
+      </c>
+      <c r="I43" s="25">
+        <v>12.95</v>
+      </c>
+      <c r="J43" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43" s="25">
+        <v>2</v>
+      </c>
+      <c r="M43" s="25">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>5837</v>
+      </c>
+      <c r="D44" s="25">
+        <v>12.2</v>
+      </c>
+      <c r="E44" s="25">
+        <v>13.78</v>
+      </c>
+      <c r="F44" s="25">
+        <v>15.47</v>
+      </c>
+      <c r="G44" s="25">
+        <v>11.29</v>
+      </c>
+      <c r="H44" s="25">
+        <v>12.7</v>
+      </c>
+      <c r="I44" s="25">
+        <v>13.86</v>
+      </c>
+      <c r="J44" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="25">
+        <v>1</v>
+      </c>
+      <c r="M44" s="25">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>4341</v>
+      </c>
+      <c r="D45">
+        <v>12.2</v>
+      </c>
+      <c r="E45">
+        <v>13.78</v>
+      </c>
+      <c r="F45">
+        <v>15.47</v>
+      </c>
+      <c r="G45">
+        <v>11.29</v>
+      </c>
+      <c r="H45">
+        <v>12.7</v>
+      </c>
+      <c r="I45">
+        <v>13.86</v>
+      </c>
+      <c r="J45" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45" s="25">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>4341</v>
+      </c>
+      <c r="D46">
+        <v>12.2</v>
+      </c>
+      <c r="E46">
+        <v>13.78</v>
+      </c>
+      <c r="F46">
+        <v>15.47</v>
+      </c>
+      <c r="G46">
+        <v>11.29</v>
+      </c>
+      <c r="H46">
+        <v>12.7</v>
+      </c>
+      <c r="I46">
+        <v>13.86</v>
+      </c>
+      <c r="J46" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46" s="25">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>4341</v>
+      </c>
+      <c r="D47">
+        <v>12.2</v>
+      </c>
+      <c r="E47">
+        <v>13.78</v>
+      </c>
+      <c r="F47">
+        <v>15.47</v>
+      </c>
+      <c r="G47">
+        <v>11.29</v>
+      </c>
+      <c r="H47">
+        <v>12.7</v>
+      </c>
+      <c r="I47">
+        <v>13.86</v>
+      </c>
+      <c r="J47" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" s="25">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>4341</v>
+      </c>
+      <c r="D48">
+        <v>12.2</v>
+      </c>
+      <c r="E48">
+        <v>13.78</v>
+      </c>
+      <c r="F48">
+        <v>15.47</v>
+      </c>
+      <c r="G48">
+        <v>11.29</v>
+      </c>
+      <c r="H48">
+        <v>12.7</v>
+      </c>
+      <c r="I48">
+        <v>13.86</v>
+      </c>
+      <c r="J48" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48" s="25">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>4341</v>
+      </c>
+      <c r="D49">
+        <v>12.2</v>
+      </c>
+      <c r="E49">
+        <v>13.78</v>
+      </c>
+      <c r="F49">
+        <v>15.47</v>
+      </c>
+      <c r="G49">
+        <v>11.29</v>
+      </c>
+      <c r="H49">
+        <v>12.7</v>
+      </c>
+      <c r="I49">
+        <v>13.86</v>
+      </c>
+      <c r="J49" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49" s="25">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>4341</v>
+      </c>
+      <c r="D50">
+        <v>12.2</v>
+      </c>
+      <c r="E50">
+        <v>13.78</v>
+      </c>
+      <c r="F50">
+        <v>15.47</v>
+      </c>
+      <c r="G50">
+        <v>11.29</v>
+      </c>
+      <c r="H50">
+        <v>12.7</v>
+      </c>
+      <c r="I50">
+        <v>13.86</v>
+      </c>
+      <c r="J50" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50" s="25">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>4341</v>
+      </c>
+      <c r="D51">
+        <v>12.2</v>
+      </c>
+      <c r="E51">
+        <v>13.78</v>
+      </c>
+      <c r="F51">
+        <v>15.47</v>
+      </c>
+      <c r="G51">
+        <v>11.29</v>
+      </c>
+      <c r="H51">
+        <v>12.7</v>
+      </c>
+      <c r="I51">
+        <v>13.86</v>
+      </c>
+      <c r="J51" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51" s="25">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>4341</v>
+      </c>
+      <c r="D52">
+        <v>12.2</v>
+      </c>
+      <c r="E52">
+        <v>13.78</v>
+      </c>
+      <c r="F52">
+        <v>15.47</v>
+      </c>
+      <c r="G52">
+        <v>11.29</v>
+      </c>
+      <c r="H52">
+        <v>12.7</v>
+      </c>
+      <c r="I52">
+        <v>13.86</v>
+      </c>
+      <c r="J52" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52" s="25">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>4341</v>
+      </c>
+      <c r="D53">
+        <v>12.2</v>
+      </c>
+      <c r="E53">
+        <v>13.78</v>
+      </c>
+      <c r="F53">
+        <v>15.47</v>
+      </c>
+      <c r="G53">
+        <v>11.29</v>
+      </c>
+      <c r="H53">
+        <v>12.7</v>
+      </c>
+      <c r="I53">
+        <v>13.86</v>
+      </c>
+      <c r="J53" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53" s="25">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>4341</v>
+      </c>
+      <c r="D54">
+        <v>12.2</v>
+      </c>
+      <c r="E54">
+        <v>13.78</v>
+      </c>
+      <c r="F54">
+        <v>15.47</v>
+      </c>
+      <c r="G54">
+        <v>11.29</v>
+      </c>
+      <c r="H54">
+        <v>12.7</v>
+      </c>
+      <c r="I54">
+        <v>13.86</v>
+      </c>
+      <c r="J54" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54" s="25">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>4341</v>
+      </c>
+      <c r="D55">
+        <v>12.2</v>
+      </c>
+      <c r="E55">
+        <v>13.78</v>
+      </c>
+      <c r="F55">
+        <v>15.47</v>
+      </c>
+      <c r="G55">
+        <v>11.29</v>
+      </c>
+      <c r="H55">
+        <v>12.7</v>
+      </c>
+      <c r="I55">
+        <v>13.86</v>
+      </c>
+      <c r="J55" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55" s="25">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>4341</v>
+      </c>
+      <c r="D56">
+        <v>12.2</v>
+      </c>
+      <c r="E56">
+        <v>13.78</v>
+      </c>
+      <c r="F56">
+        <v>15.47</v>
+      </c>
+      <c r="G56">
+        <v>11.29</v>
+      </c>
+      <c r="H56">
+        <v>12.7</v>
+      </c>
+      <c r="I56">
+        <v>13.86</v>
+      </c>
+      <c r="J56" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56" s="25">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>4341</v>
+      </c>
+      <c r="D57">
+        <v>12.2</v>
+      </c>
+      <c r="E57">
+        <v>13.78</v>
+      </c>
+      <c r="F57">
+        <v>15.47</v>
+      </c>
+      <c r="G57">
+        <v>11.29</v>
+      </c>
+      <c r="H57">
+        <v>12.7</v>
+      </c>
+      <c r="I57">
+        <v>13.86</v>
+      </c>
+      <c r="J57" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57" s="25">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>4341</v>
+      </c>
+      <c r="D58">
+        <v>12.2</v>
+      </c>
+      <c r="E58">
+        <v>13.78</v>
+      </c>
+      <c r="F58">
+        <v>15.47</v>
+      </c>
+      <c r="G58">
+        <v>11.29</v>
+      </c>
+      <c r="H58">
+        <v>12.7</v>
+      </c>
+      <c r="I58">
+        <v>13.86</v>
+      </c>
+      <c r="J58" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58" s="25">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>4341</v>
+      </c>
+      <c r="D59">
+        <v>12.2</v>
+      </c>
+      <c r="E59">
+        <v>13.78</v>
+      </c>
+      <c r="F59">
+        <v>15.47</v>
+      </c>
+      <c r="G59">
+        <v>11.29</v>
+      </c>
+      <c r="H59">
+        <v>12.7</v>
+      </c>
+      <c r="I59">
+        <v>13.86</v>
+      </c>
+      <c r="J59" s="21">
+        <v>42367</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59" s="25">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>4287</v>
+      </c>
+      <c r="D60" s="28">
+        <v>14.88</v>
+      </c>
+      <c r="E60">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F60">
+        <v>18.23</v>
+      </c>
+      <c r="G60">
+        <v>14.4</v>
+      </c>
+      <c r="H60">
+        <v>16.18</v>
+      </c>
+      <c r="I60">
+        <v>17.66</v>
+      </c>
+      <c r="J60" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60" s="25">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>4287</v>
+      </c>
+      <c r="D61" s="28">
+        <v>14.88</v>
+      </c>
+      <c r="E61">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F61">
+        <v>18.23</v>
+      </c>
+      <c r="G61">
+        <v>14.4</v>
+      </c>
+      <c r="H61">
+        <v>16.18</v>
+      </c>
+      <c r="I61">
+        <v>17.66</v>
+      </c>
+      <c r="J61" s="23">
+        <v>42367</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61" s="25">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>4335</v>
+      </c>
+      <c r="D62" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E62">
+        <v>13.27</v>
+      </c>
+      <c r="F62">
+        <v>17.46</v>
+      </c>
+      <c r="G62">
+        <v>10.87</v>
+      </c>
+      <c r="H62">
+        <v>12.23</v>
+      </c>
+      <c r="I62">
+        <v>13.34</v>
+      </c>
+      <c r="J62" s="23">
+        <v>42702</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="25">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>4335</v>
+      </c>
+      <c r="D63" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E63">
+        <v>13.27</v>
+      </c>
+      <c r="F63">
+        <v>17.46</v>
+      </c>
+      <c r="G63">
+        <v>10.87</v>
+      </c>
+      <c r="H63">
+        <v>12.23</v>
+      </c>
+      <c r="I63">
+        <v>13.34</v>
+      </c>
+      <c r="J63" s="23">
+        <v>42702</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="25">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>4303</v>
+      </c>
+      <c r="D64" s="27">
+        <v>12.27</v>
+      </c>
+      <c r="E64">
+        <v>13.29</v>
+      </c>
+      <c r="F64">
+        <v>17.46</v>
+      </c>
+      <c r="G64">
+        <v>11.45</v>
+      </c>
+      <c r="H64">
+        <v>12.88</v>
+      </c>
+      <c r="I64">
+        <v>14.05</v>
+      </c>
+      <c r="J64" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" s="25">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>4303</v>
+      </c>
+      <c r="D65" s="27">
+        <v>12.27</v>
+      </c>
+      <c r="E65">
+        <v>13.29</v>
+      </c>
+      <c r="F65">
+        <v>17.46</v>
+      </c>
+      <c r="G65">
+        <v>11.45</v>
+      </c>
+      <c r="H65">
+        <v>12.88</v>
+      </c>
+      <c r="I65">
+        <v>14.05</v>
+      </c>
+      <c r="J65" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" s="25">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>4303</v>
+      </c>
+      <c r="D66" s="27">
+        <v>12.27</v>
+      </c>
+      <c r="E66">
+        <v>13.29</v>
+      </c>
+      <c r="F66">
+        <v>17.46</v>
+      </c>
+      <c r="G66">
+        <v>11.45</v>
+      </c>
+      <c r="H66">
+        <v>12.88</v>
+      </c>
+      <c r="I66">
+        <v>14.05</v>
+      </c>
+      <c r="J66" s="23">
+        <v>42808</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" s="25">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>4331</v>
+      </c>
+      <c r="D67" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E67">
+        <v>13.27</v>
+      </c>
+      <c r="F67">
+        <v>17.46</v>
+      </c>
+      <c r="G67">
+        <v>10.37</v>
+      </c>
+      <c r="H67">
+        <v>11.66</v>
+      </c>
+      <c r="I67">
+        <v>12.72</v>
+      </c>
+      <c r="J67" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="25">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>4331</v>
+      </c>
+      <c r="D68" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E68">
+        <v>13.27</v>
+      </c>
+      <c r="F68">
+        <v>17.46</v>
+      </c>
+      <c r="G68">
+        <v>10.37</v>
+      </c>
+      <c r="H68">
+        <v>11.66</v>
+      </c>
+      <c r="I68">
+        <v>12.72</v>
+      </c>
+      <c r="J68" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" s="25">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>4331</v>
+      </c>
+      <c r="D69" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E69">
+        <v>13.27</v>
+      </c>
+      <c r="F69">
+        <v>17.46</v>
+      </c>
+      <c r="G69">
+        <v>10.37</v>
+      </c>
+      <c r="H69">
+        <v>11.66</v>
+      </c>
+      <c r="I69">
+        <v>12.72</v>
+      </c>
+      <c r="J69" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" s="25">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>4331</v>
+      </c>
+      <c r="D70" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E70">
+        <v>13.27</v>
+      </c>
+      <c r="F70">
+        <v>17.46</v>
+      </c>
+      <c r="G70">
+        <v>10.37</v>
+      </c>
+      <c r="H70">
+        <v>11.66</v>
+      </c>
+      <c r="I70">
+        <v>12.72</v>
+      </c>
+      <c r="J70" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" s="25">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>4331</v>
+      </c>
+      <c r="D71" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E71">
+        <v>13.27</v>
+      </c>
+      <c r="F71">
+        <v>17.46</v>
+      </c>
+      <c r="G71">
+        <v>10.37</v>
+      </c>
+      <c r="H71">
+        <v>11.66</v>
+      </c>
+      <c r="I71">
+        <v>12.72</v>
+      </c>
+      <c r="J71" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K71" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" s="25">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>4331</v>
+      </c>
+      <c r="D72" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E72">
+        <v>13.27</v>
+      </c>
+      <c r="F72">
+        <v>17.46</v>
+      </c>
+      <c r="G72">
+        <v>10.37</v>
+      </c>
+      <c r="H72">
+        <v>11.66</v>
+      </c>
+      <c r="I72">
+        <v>12.72</v>
+      </c>
+      <c r="J72" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" s="25">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>4331</v>
+      </c>
+      <c r="D73" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E73">
+        <v>13.27</v>
+      </c>
+      <c r="F73">
+        <v>17.46</v>
+      </c>
+      <c r="G73">
+        <v>10.37</v>
+      </c>
+      <c r="H73">
+        <v>11.66</v>
+      </c>
+      <c r="I73">
+        <v>12.72</v>
+      </c>
+      <c r="J73" s="23">
+        <v>42678</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" s="25">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="22">
+        <v>5489</v>
+      </c>
+      <c r="D74" s="30">
+        <v>12.18</v>
+      </c>
+      <c r="E74" s="22">
+        <v>13.29</v>
+      </c>
+      <c r="F74" s="22">
+        <v>14.92</v>
+      </c>
+      <c r="G74" s="22">
+        <v>11.83</v>
+      </c>
+      <c r="H74" s="22">
+        <v>13.3</v>
+      </c>
+      <c r="I74" s="22">
+        <v>14.51</v>
+      </c>
+      <c r="J74" s="24">
+        <v>42752</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L74" s="22">
+        <v>1</v>
+      </c>
+      <c r="M74" s="22">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="22">
+        <v>5489</v>
+      </c>
+      <c r="D75" s="27">
+        <v>12.18</v>
+      </c>
+      <c r="E75">
+        <v>13.29</v>
+      </c>
+      <c r="F75">
+        <v>14.92</v>
+      </c>
+      <c r="G75">
+        <v>11.83</v>
+      </c>
+      <c r="H75">
+        <v>13.3</v>
+      </c>
+      <c r="I75">
+        <v>14.51</v>
+      </c>
+      <c r="J75" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" s="25">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>5483</v>
+      </c>
+      <c r="D76" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E76">
+        <v>13.16</v>
+      </c>
+      <c r="F76">
+        <v>14.77</v>
+      </c>
+      <c r="G76">
+        <v>10.54</v>
+      </c>
+      <c r="H76">
+        <v>11.85</v>
+      </c>
+      <c r="I76">
+        <v>12.93</v>
+      </c>
+      <c r="J76" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" s="25">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>5483</v>
+      </c>
+      <c r="D77" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E77">
+        <v>13.16</v>
+      </c>
+      <c r="F77">
+        <v>14.77</v>
+      </c>
+      <c r="G77">
+        <v>10.54</v>
+      </c>
+      <c r="H77">
+        <v>11.85</v>
+      </c>
+      <c r="I77">
+        <v>12.93</v>
+      </c>
+      <c r="J77" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K77" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="25">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>5483</v>
+      </c>
+      <c r="D78" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E78">
+        <v>13.16</v>
+      </c>
+      <c r="F78">
+        <v>14.77</v>
+      </c>
+      <c r="G78">
+        <v>10.54</v>
+      </c>
+      <c r="H78">
+        <v>11.85</v>
+      </c>
+      <c r="I78">
+        <v>12.93</v>
+      </c>
+      <c r="J78" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" s="25">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>5483</v>
+      </c>
+      <c r="D79" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E79">
+        <v>13.16</v>
+      </c>
+      <c r="F79">
+        <v>14.77</v>
+      </c>
+      <c r="G79">
+        <v>10.54</v>
+      </c>
+      <c r="H79">
+        <v>11.85</v>
+      </c>
+      <c r="I79">
+        <v>12.93</v>
+      </c>
+      <c r="J79" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" s="25">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <v>5483</v>
+      </c>
+      <c r="D80" s="27">
+        <v>12.06</v>
+      </c>
+      <c r="E80">
+        <v>13.16</v>
+      </c>
+      <c r="F80">
+        <v>14.77</v>
+      </c>
+      <c r="G80">
+        <v>10.54</v>
+      </c>
+      <c r="H80">
+        <v>11.85</v>
+      </c>
+      <c r="I80">
+        <v>12.93</v>
+      </c>
+      <c r="J80" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" s="25">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81">
+        <v>5491</v>
+      </c>
+      <c r="D81" s="27">
+        <v>11.54</v>
+      </c>
+      <c r="E81">
+        <v>12.59</v>
+      </c>
+      <c r="F81">
+        <v>14.13</v>
+      </c>
+      <c r="G81">
+        <v>11.62</v>
+      </c>
+      <c r="H81">
+        <v>13.07</v>
+      </c>
+      <c r="I81">
+        <v>14.26</v>
+      </c>
+      <c r="J81" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" s="25">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82">
+        <v>5491</v>
+      </c>
+      <c r="D82" s="27">
+        <v>11.54</v>
+      </c>
+      <c r="E82">
+        <v>12.59</v>
+      </c>
+      <c r="F82">
+        <v>14.13</v>
+      </c>
+      <c r="G82">
+        <v>11.62</v>
+      </c>
+      <c r="H82">
+        <v>13.07</v>
+      </c>
+      <c r="I82">
+        <v>14.26</v>
+      </c>
+      <c r="J82" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K82" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" s="25">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83">
+        <v>5491</v>
+      </c>
+      <c r="D83" s="27">
+        <v>11.54</v>
+      </c>
+      <c r="E83">
+        <v>12.59</v>
+      </c>
+      <c r="F83">
+        <v>14.13</v>
+      </c>
+      <c r="G83">
+        <v>11.62</v>
+      </c>
+      <c r="H83">
+        <v>13.07</v>
+      </c>
+      <c r="I83">
+        <v>14.26</v>
+      </c>
+      <c r="J83" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K83" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" s="25">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84">
+        <v>5485</v>
+      </c>
+      <c r="D84" s="27">
+        <v>11.6</v>
+      </c>
+      <c r="E84">
+        <v>12.66</v>
+      </c>
+      <c r="F84">
+        <v>14.21</v>
+      </c>
+      <c r="G84">
+        <v>10.61</v>
+      </c>
+      <c r="H84">
+        <v>11.93</v>
+      </c>
+      <c r="I84">
+        <v>13.02</v>
+      </c>
+      <c r="J84" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K84" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" s="25">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85">
+        <v>5485</v>
+      </c>
+      <c r="D85" s="27">
+        <v>11.6</v>
+      </c>
+      <c r="E85">
+        <v>12.66</v>
+      </c>
+      <c r="F85">
+        <v>14.21</v>
+      </c>
+      <c r="G85">
+        <v>10.61</v>
+      </c>
+      <c r="H85">
+        <v>11.93</v>
+      </c>
+      <c r="I85">
+        <v>13.02</v>
+      </c>
+      <c r="J85" s="23">
+        <v>42752</v>
+      </c>
+      <c r="K85" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" s="25">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="22">
+        <v>5447</v>
+      </c>
+      <c r="D86" s="30">
+        <v>10.57</v>
+      </c>
+      <c r="E86" s="22">
+        <v>11.54</v>
+      </c>
+      <c r="F86" s="22">
+        <v>12.95</v>
+      </c>
+      <c r="G86" s="22">
+        <v>9.91</v>
+      </c>
+      <c r="H86" s="22">
+        <v>11.14</v>
+      </c>
+      <c r="I86" s="22">
+        <v>12.16</v>
+      </c>
+      <c r="J86" s="24">
+        <v>42760</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="L86" s="22">
+        <v>1</v>
+      </c>
+      <c r="M86" s="22">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87">
+        <v>5461</v>
+      </c>
+      <c r="D87" s="27">
+        <v>9.61</v>
+      </c>
+      <c r="E87">
+        <v>10.49</v>
+      </c>
+      <c r="F87">
+        <v>11.77</v>
+      </c>
+      <c r="G87">
+        <v>10.55</v>
+      </c>
+      <c r="H87">
+        <v>11.86</v>
+      </c>
+      <c r="I87">
+        <v>12.94</v>
+      </c>
+      <c r="J87" s="23">
+        <v>42705</v>
+      </c>
+      <c r="K87" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" s="25">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88">
+        <v>5461</v>
+      </c>
+      <c r="D88" s="27">
+        <v>9.61</v>
+      </c>
+      <c r="E88">
+        <v>10.49</v>
+      </c>
+      <c r="F88">
+        <v>11.77</v>
+      </c>
+      <c r="G88">
+        <v>10.55</v>
+      </c>
+      <c r="H88">
+        <v>11.86</v>
+      </c>
+      <c r="I88">
+        <v>12.94</v>
+      </c>
+      <c r="J88" s="23">
+        <v>42705</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" s="25">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89">
+        <v>5461</v>
+      </c>
+      <c r="D89" s="27">
+        <v>9.61</v>
+      </c>
+      <c r="E89">
+        <v>10.49</v>
+      </c>
+      <c r="F89">
+        <v>11.77</v>
+      </c>
+      <c r="G89">
+        <v>10.55</v>
+      </c>
+      <c r="H89">
+        <v>11.86</v>
+      </c>
+      <c r="I89">
+        <v>12.94</v>
+      </c>
+      <c r="J89" s="23">
+        <v>42705</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" s="25">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>5461</v>
+      </c>
+      <c r="D90" s="27">
+        <v>9.61</v>
+      </c>
+      <c r="E90">
+        <v>10.49</v>
+      </c>
+      <c r="F90">
+        <v>11.77</v>
+      </c>
+      <c r="G90">
+        <v>10.55</v>
+      </c>
+      <c r="H90">
+        <v>11.86</v>
+      </c>
+      <c r="I90">
+        <v>12.94</v>
+      </c>
+      <c r="J90" s="23">
+        <v>42705</v>
+      </c>
+      <c r="K90" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" s="25">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91">
+        <v>5455</v>
+      </c>
+      <c r="D91" s="27">
+        <v>10.57</v>
+      </c>
+      <c r="E91">
+        <v>11.54</v>
+      </c>
+      <c r="F91">
+        <v>12.95</v>
+      </c>
+      <c r="G91">
+        <v>10.67</v>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>13.09</v>
+      </c>
+      <c r="J91" s="23">
+        <v>42614</v>
+      </c>
+      <c r="K91" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" s="25">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92">
+        <v>5455</v>
+      </c>
+      <c r="D92" s="27">
+        <v>10.57</v>
+      </c>
+      <c r="E92">
+        <v>11.54</v>
+      </c>
+      <c r="F92">
+        <v>12.95</v>
+      </c>
+      <c r="G92">
+        <v>10.67</v>
+      </c>
+      <c r="H92">
+        <v>12</v>
+      </c>
+      <c r="I92">
+        <v>13.09</v>
+      </c>
+      <c r="J92" s="23">
+        <v>42614</v>
+      </c>
+      <c r="K92" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" s="25">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93">
+        <v>5455</v>
+      </c>
+      <c r="D93" s="27">
+        <v>10.57</v>
+      </c>
+      <c r="E93">
+        <v>11.54</v>
+      </c>
+      <c r="F93">
+        <v>12.95</v>
+      </c>
+      <c r="G93">
+        <v>10.67</v>
+      </c>
+      <c r="H93">
+        <v>12</v>
+      </c>
+      <c r="I93">
+        <v>13.09</v>
+      </c>
+      <c r="J93" s="23">
+        <v>42614</v>
+      </c>
+      <c r="K93" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" s="25">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94">
+        <v>5455</v>
+      </c>
+      <c r="D94" s="27">
+        <v>10.57</v>
+      </c>
+      <c r="E94">
+        <v>11.54</v>
+      </c>
+      <c r="F94">
+        <v>12.95</v>
+      </c>
+      <c r="G94">
+        <v>10.67</v>
+      </c>
+      <c r="H94">
+        <v>12</v>
+      </c>
+      <c r="I94">
+        <v>13.09</v>
+      </c>
+      <c r="J94" s="23">
+        <v>42614</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94" s="25">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="22">
+        <v>4683</v>
+      </c>
+      <c r="D95" s="30">
+        <v>11.57</v>
+      </c>
+      <c r="E95" s="22">
+        <v>12.64</v>
+      </c>
+      <c r="F95" s="22">
+        <v>14.18</v>
+      </c>
+      <c r="G95" s="22">
+        <v>11.46</v>
+      </c>
+      <c r="H95" s="22">
+        <v>12.89</v>
+      </c>
+      <c r="I95" s="22">
+        <v>14.06</v>
+      </c>
+      <c r="J95" s="24">
+        <v>42551</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L95" s="22">
+        <v>1</v>
+      </c>
+      <c r="M95" s="22">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="22">
+        <v>4683</v>
+      </c>
+      <c r="D96" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E96">
+        <v>12.64</v>
+      </c>
+      <c r="F96">
+        <v>14.18</v>
+      </c>
+      <c r="G96">
+        <v>11.46</v>
+      </c>
+      <c r="H96">
+        <v>12.89</v>
+      </c>
+      <c r="I96">
+        <v>14.06</v>
+      </c>
+      <c r="J96" s="23">
+        <v>42551</v>
+      </c>
+      <c r="K96" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96" s="25">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="22">
+        <v>4683</v>
+      </c>
+      <c r="D97" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E97">
+        <v>12.64</v>
+      </c>
+      <c r="F97">
+        <v>14.18</v>
+      </c>
+      <c r="G97">
+        <v>11.46</v>
+      </c>
+      <c r="H97">
+        <v>12.89</v>
+      </c>
+      <c r="I97">
+        <v>14.06</v>
+      </c>
+      <c r="J97" s="23">
+        <v>42551</v>
+      </c>
+      <c r="K97" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" s="25">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="22">
+        <v>4683</v>
+      </c>
+      <c r="D98" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E98">
+        <v>12.64</v>
+      </c>
+      <c r="F98">
+        <v>14.18</v>
+      </c>
+      <c r="G98">
+        <v>11.46</v>
+      </c>
+      <c r="H98">
+        <v>12.89</v>
+      </c>
+      <c r="I98">
+        <v>14.06</v>
+      </c>
+      <c r="J98" s="23">
+        <v>42551</v>
+      </c>
+      <c r="K98" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" s="25">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="22">
+        <v>4683</v>
+      </c>
+      <c r="D99" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E99">
+        <v>12.64</v>
+      </c>
+      <c r="F99">
+        <v>14.18</v>
+      </c>
+      <c r="G99">
+        <v>11.46</v>
+      </c>
+      <c r="H99">
+        <v>12.89</v>
+      </c>
+      <c r="I99">
+        <v>14.06</v>
+      </c>
+      <c r="J99" s="23">
+        <v>42551</v>
+      </c>
+      <c r="K99" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99" s="25">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="22">
+        <v>4683</v>
+      </c>
+      <c r="D100" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E100">
+        <v>12.64</v>
+      </c>
+      <c r="F100">
+        <v>14.18</v>
+      </c>
+      <c r="G100">
+        <v>11.46</v>
+      </c>
+      <c r="H100">
+        <v>12.89</v>
+      </c>
+      <c r="I100">
+        <v>14.06</v>
+      </c>
+      <c r="J100" s="23">
+        <v>42551</v>
+      </c>
+      <c r="K100" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100" s="25">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101">
+        <v>4701</v>
+      </c>
+      <c r="D101" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E101">
+        <v>12.22</v>
+      </c>
+      <c r="F101">
+        <v>13.72</v>
+      </c>
+      <c r="G101">
+        <v>10.81</v>
+      </c>
+      <c r="H101">
+        <v>12.15</v>
+      </c>
+      <c r="I101">
+        <v>13.25</v>
+      </c>
+      <c r="J101" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K101" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" s="25">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102">
+        <v>4701</v>
+      </c>
+      <c r="D102" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E102">
+        <v>12.22</v>
+      </c>
+      <c r="F102">
+        <v>13.72</v>
+      </c>
+      <c r="G102">
+        <v>10.81</v>
+      </c>
+      <c r="H102">
+        <v>12.15</v>
+      </c>
+      <c r="I102">
+        <v>13.25</v>
+      </c>
+      <c r="J102" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K102" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" s="25">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103">
+        <v>4701</v>
+      </c>
+      <c r="D103" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E103">
+        <v>12.22</v>
+      </c>
+      <c r="F103">
+        <v>13.72</v>
+      </c>
+      <c r="G103">
+        <v>10.81</v>
+      </c>
+      <c r="H103">
+        <v>12.15</v>
+      </c>
+      <c r="I103">
+        <v>13.25</v>
+      </c>
+      <c r="J103" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K103" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" s="25">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104">
+        <v>4701</v>
+      </c>
+      <c r="D104" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E104">
+        <v>12.22</v>
+      </c>
+      <c r="F104">
+        <v>13.72</v>
+      </c>
+      <c r="G104">
+        <v>10.81</v>
+      </c>
+      <c r="H104">
+        <v>12.15</v>
+      </c>
+      <c r="I104">
+        <v>13.25</v>
+      </c>
+      <c r="J104" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K104" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" s="25">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105">
+        <v>4701</v>
+      </c>
+      <c r="D105" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E105">
+        <v>12.22</v>
+      </c>
+      <c r="F105">
+        <v>13.72</v>
+      </c>
+      <c r="G105">
+        <v>10.81</v>
+      </c>
+      <c r="H105">
+        <v>12.15</v>
+      </c>
+      <c r="I105">
+        <v>13.25</v>
+      </c>
+      <c r="J105" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K105" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105" s="25">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106">
+        <v>4701</v>
+      </c>
+      <c r="D106" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E106">
+        <v>12.22</v>
+      </c>
+      <c r="F106">
+        <v>13.72</v>
+      </c>
+      <c r="G106">
+        <v>10.81</v>
+      </c>
+      <c r="H106">
+        <v>12.15</v>
+      </c>
+      <c r="I106">
+        <v>13.25</v>
+      </c>
+      <c r="J106" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K106" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" s="25">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107">
+        <v>4701</v>
+      </c>
+      <c r="D107" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E107">
+        <v>12.22</v>
+      </c>
+      <c r="F107">
+        <v>13.72</v>
+      </c>
+      <c r="G107">
+        <v>10.81</v>
+      </c>
+      <c r="H107">
+        <v>12.15</v>
+      </c>
+      <c r="I107">
+        <v>13.25</v>
+      </c>
+      <c r="J107" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K107" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107" s="25">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108">
+        <v>4701</v>
+      </c>
+      <c r="D108" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E108">
+        <v>12.22</v>
+      </c>
+      <c r="F108">
+        <v>13.72</v>
+      </c>
+      <c r="G108">
+        <v>10.81</v>
+      </c>
+      <c r="H108">
+        <v>12.15</v>
+      </c>
+      <c r="I108">
+        <v>13.25</v>
+      </c>
+      <c r="J108" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K108" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108" s="25">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109">
+        <v>4701</v>
+      </c>
+      <c r="D109" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E109">
+        <v>12.22</v>
+      </c>
+      <c r="F109">
+        <v>13.72</v>
+      </c>
+      <c r="G109">
+        <v>10.81</v>
+      </c>
+      <c r="H109">
+        <v>12.15</v>
+      </c>
+      <c r="I109">
+        <v>13.25</v>
+      </c>
+      <c r="J109" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K109" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" s="25">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110">
+        <v>4701</v>
+      </c>
+      <c r="D110" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E110">
+        <v>12.22</v>
+      </c>
+      <c r="F110">
+        <v>13.72</v>
+      </c>
+      <c r="G110">
+        <v>10.81</v>
+      </c>
+      <c r="H110">
+        <v>12.15</v>
+      </c>
+      <c r="I110">
+        <v>13.25</v>
+      </c>
+      <c r="J110" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K110" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="25">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>233</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111">
+        <v>4701</v>
+      </c>
+      <c r="D111" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E111">
+        <v>12.22</v>
+      </c>
+      <c r="F111">
+        <v>13.72</v>
+      </c>
+      <c r="G111">
+        <v>10.81</v>
+      </c>
+      <c r="H111">
+        <v>12.15</v>
+      </c>
+      <c r="I111">
+        <v>13.25</v>
+      </c>
+      <c r="J111" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K111" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" s="25">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112">
+        <v>4701</v>
+      </c>
+      <c r="D112" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E112">
+        <v>12.22</v>
+      </c>
+      <c r="F112">
+        <v>13.72</v>
+      </c>
+      <c r="G112">
+        <v>10.81</v>
+      </c>
+      <c r="H112">
+        <v>12.15</v>
+      </c>
+      <c r="I112">
+        <v>13.25</v>
+      </c>
+      <c r="J112" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K112" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" s="25">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113">
+        <v>4701</v>
+      </c>
+      <c r="D113" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E113">
+        <v>12.22</v>
+      </c>
+      <c r="F113">
+        <v>13.72</v>
+      </c>
+      <c r="G113">
+        <v>10.81</v>
+      </c>
+      <c r="H113">
+        <v>12.15</v>
+      </c>
+      <c r="I113">
+        <v>13.25</v>
+      </c>
+      <c r="J113" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K113" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" s="25">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114">
+        <v>4701</v>
+      </c>
+      <c r="D114" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E114">
+        <v>12.22</v>
+      </c>
+      <c r="F114">
+        <v>13.72</v>
+      </c>
+      <c r="G114">
+        <v>10.81</v>
+      </c>
+      <c r="H114">
+        <v>12.15</v>
+      </c>
+      <c r="I114">
+        <v>13.25</v>
+      </c>
+      <c r="J114" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K114" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" s="25">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115">
+        <v>4701</v>
+      </c>
+      <c r="D115" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E115">
+        <v>12.22</v>
+      </c>
+      <c r="F115">
+        <v>13.72</v>
+      </c>
+      <c r="G115">
+        <v>10.81</v>
+      </c>
+      <c r="H115">
+        <v>12.15</v>
+      </c>
+      <c r="I115">
+        <v>13.25</v>
+      </c>
+      <c r="J115" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K115" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="25">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116">
+        <v>4701</v>
+      </c>
+      <c r="D116" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E116">
+        <v>12.22</v>
+      </c>
+      <c r="F116">
+        <v>13.72</v>
+      </c>
+      <c r="G116">
+        <v>10.81</v>
+      </c>
+      <c r="H116">
+        <v>12.15</v>
+      </c>
+      <c r="I116">
+        <v>13.25</v>
+      </c>
+      <c r="J116" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K116" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" s="25">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117">
+        <v>4701</v>
+      </c>
+      <c r="D117" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E117">
+        <v>12.22</v>
+      </c>
+      <c r="F117">
+        <v>13.72</v>
+      </c>
+      <c r="G117">
+        <v>10.81</v>
+      </c>
+      <c r="H117">
+        <v>12.15</v>
+      </c>
+      <c r="I117">
+        <v>13.25</v>
+      </c>
+      <c r="J117" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K117" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" s="25">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118">
+        <v>4701</v>
+      </c>
+      <c r="D118" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E118">
+        <v>12.22</v>
+      </c>
+      <c r="F118">
+        <v>13.72</v>
+      </c>
+      <c r="G118">
+        <v>10.81</v>
+      </c>
+      <c r="H118">
+        <v>12.15</v>
+      </c>
+      <c r="I118">
+        <v>13.25</v>
+      </c>
+      <c r="J118" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K118" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" s="25">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119">
+        <v>4701</v>
+      </c>
+      <c r="D119" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E119">
+        <v>12.22</v>
+      </c>
+      <c r="F119">
+        <v>13.72</v>
+      </c>
+      <c r="G119">
+        <v>10.81</v>
+      </c>
+      <c r="H119">
+        <v>12.15</v>
+      </c>
+      <c r="I119">
+        <v>13.25</v>
+      </c>
+      <c r="J119" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K119" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" s="25">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120">
+        <v>4701</v>
+      </c>
+      <c r="D120" s="27">
+        <v>11.21</v>
+      </c>
+      <c r="E120">
+        <v>12.22</v>
+      </c>
+      <c r="F120">
+        <v>13.72</v>
+      </c>
+      <c r="G120">
+        <v>10.81</v>
+      </c>
+      <c r="H120">
+        <v>12.15</v>
+      </c>
+      <c r="I120">
+        <v>13.25</v>
+      </c>
+      <c r="J120" s="23">
+        <v>42621</v>
+      </c>
+      <c r="K120" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="25">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C121" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D121" s="30">
+        <v>11.07</v>
+      </c>
+      <c r="E121" s="22">
+        <v>12.08</v>
+      </c>
+      <c r="F121" s="22">
+        <v>13.56</v>
+      </c>
+      <c r="G121" s="22">
+        <v>9.56</v>
+      </c>
+      <c r="H121" s="22">
+        <v>10.75</v>
+      </c>
+      <c r="I121" s="22">
+        <v>11.74</v>
+      </c>
+      <c r="J121" s="24">
+        <v>42446</v>
+      </c>
+      <c r="K121" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L121" s="22">
+        <v>1</v>
+      </c>
+      <c r="M121" s="22">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D122" s="30">
+        <v>11.07</v>
+      </c>
+      <c r="E122" s="22">
+        <v>12.08</v>
+      </c>
+      <c r="F122" s="22">
+        <v>13.56</v>
+      </c>
+      <c r="G122" s="22">
+        <v>9.56</v>
+      </c>
+      <c r="H122" s="22">
+        <v>10.75</v>
+      </c>
+      <c r="I122" s="22">
+        <v>11.74</v>
+      </c>
+      <c r="J122" s="24">
+        <v>42446</v>
+      </c>
+      <c r="K122" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L122" s="22">
+        <v>1</v>
+      </c>
+      <c r="M122" s="22">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D123" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E123">
+        <v>12.08</v>
+      </c>
+      <c r="F123">
+        <v>13.56</v>
+      </c>
+      <c r="G123">
+        <v>9.56</v>
+      </c>
+      <c r="H123">
+        <v>10.75</v>
+      </c>
+      <c r="I123">
+        <v>11.74</v>
+      </c>
+      <c r="J123" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K123" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123" s="25">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D124" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E124">
+        <v>12.08</v>
+      </c>
+      <c r="F124">
+        <v>13.56</v>
+      </c>
+      <c r="G124">
+        <v>9.56</v>
+      </c>
+      <c r="H124">
+        <v>10.75</v>
+      </c>
+      <c r="I124">
+        <v>11.74</v>
+      </c>
+      <c r="J124" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K124" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" s="25">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D125" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E125">
+        <v>12.08</v>
+      </c>
+      <c r="F125">
+        <v>13.56</v>
+      </c>
+      <c r="G125">
+        <v>9.56</v>
+      </c>
+      <c r="H125">
+        <v>10.75</v>
+      </c>
+      <c r="I125">
+        <v>11.74</v>
+      </c>
+      <c r="J125" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K125" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125" s="25">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D126" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E126">
+        <v>12.08</v>
+      </c>
+      <c r="F126">
+        <v>13.56</v>
+      </c>
+      <c r="G126">
+        <v>9.56</v>
+      </c>
+      <c r="H126">
+        <v>10.75</v>
+      </c>
+      <c r="I126">
+        <v>11.74</v>
+      </c>
+      <c r="J126" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K126" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126" s="25">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D127" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E127">
+        <v>12.08</v>
+      </c>
+      <c r="F127">
+        <v>13.56</v>
+      </c>
+      <c r="G127">
+        <v>9.56</v>
+      </c>
+      <c r="H127">
+        <v>10.75</v>
+      </c>
+      <c r="I127">
+        <v>11.74</v>
+      </c>
+      <c r="J127" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K127" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127" s="25">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D128" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E128">
+        <v>12.08</v>
+      </c>
+      <c r="F128">
+        <v>13.56</v>
+      </c>
+      <c r="G128">
+        <v>9.56</v>
+      </c>
+      <c r="H128">
+        <v>10.75</v>
+      </c>
+      <c r="I128">
+        <v>11.74</v>
+      </c>
+      <c r="J128" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K128" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128" s="25">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D129" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E129">
+        <v>12.08</v>
+      </c>
+      <c r="F129">
+        <v>13.56</v>
+      </c>
+      <c r="G129">
+        <v>9.56</v>
+      </c>
+      <c r="H129">
+        <v>10.75</v>
+      </c>
+      <c r="I129">
+        <v>11.74</v>
+      </c>
+      <c r="J129" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K129" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129" s="25">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D130" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E130">
+        <v>12.08</v>
+      </c>
+      <c r="F130">
+        <v>13.56</v>
+      </c>
+      <c r="G130">
+        <v>9.56</v>
+      </c>
+      <c r="H130">
+        <v>10.75</v>
+      </c>
+      <c r="I130">
+        <v>11.74</v>
+      </c>
+      <c r="J130" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K130" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130" s="25">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D131" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E131">
+        <v>12.08</v>
+      </c>
+      <c r="F131">
+        <v>13.56</v>
+      </c>
+      <c r="G131">
+        <v>9.56</v>
+      </c>
+      <c r="H131">
+        <v>10.75</v>
+      </c>
+      <c r="I131">
+        <v>11.74</v>
+      </c>
+      <c r="J131" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K131" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" s="25">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" s="22">
+        <v>4695</v>
+      </c>
+      <c r="D132" s="27">
+        <v>11.07</v>
+      </c>
+      <c r="E132">
+        <v>12.08</v>
+      </c>
+      <c r="F132">
+        <v>13.56</v>
+      </c>
+      <c r="G132">
+        <v>9.56</v>
+      </c>
+      <c r="H132">
+        <v>10.75</v>
+      </c>
+      <c r="I132">
+        <v>11.74</v>
+      </c>
+      <c r="J132" s="23">
+        <v>42446</v>
+      </c>
+      <c r="K132" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" s="25">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D133" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E133">
+        <v>12.64</v>
+      </c>
+      <c r="F133">
+        <v>14.18</v>
+      </c>
+      <c r="G133">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H133">
+        <v>11.38</v>
+      </c>
+      <c r="I133">
+        <v>12.42</v>
+      </c>
+      <c r="J133" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K133" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" s="25">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D134" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E134">
+        <v>12.64</v>
+      </c>
+      <c r="F134">
+        <v>14.18</v>
+      </c>
+      <c r="G134">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H134">
+        <v>11.38</v>
+      </c>
+      <c r="I134">
+        <v>12.42</v>
+      </c>
+      <c r="J134" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K134" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" s="25">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D135" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E135">
+        <v>12.64</v>
+      </c>
+      <c r="F135">
+        <v>14.18</v>
+      </c>
+      <c r="G135">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H135">
+        <v>11.38</v>
+      </c>
+      <c r="I135">
+        <v>12.42</v>
+      </c>
+      <c r="J135" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K135" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" s="25">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D136" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E136">
+        <v>12.64</v>
+      </c>
+      <c r="F136">
+        <v>14.18</v>
+      </c>
+      <c r="G136">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H136">
+        <v>11.38</v>
+      </c>
+      <c r="I136">
+        <v>12.42</v>
+      </c>
+      <c r="J136" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K136" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" s="25">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D137" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E137">
+        <v>12.64</v>
+      </c>
+      <c r="F137">
+        <v>14.18</v>
+      </c>
+      <c r="G137">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H137">
+        <v>11.38</v>
+      </c>
+      <c r="I137">
+        <v>12.42</v>
+      </c>
+      <c r="J137" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K137" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" s="25">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D138" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E138">
+        <v>12.64</v>
+      </c>
+      <c r="F138">
+        <v>14.18</v>
+      </c>
+      <c r="G138">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H138">
+        <v>11.38</v>
+      </c>
+      <c r="I138">
+        <v>12.42</v>
+      </c>
+      <c r="J138" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K138" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" s="25">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D139" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E139">
+        <v>12.64</v>
+      </c>
+      <c r="F139">
+        <v>14.18</v>
+      </c>
+      <c r="G139">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H139">
+        <v>11.38</v>
+      </c>
+      <c r="I139">
+        <v>12.42</v>
+      </c>
+      <c r="J139" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K139" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" s="25">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D140" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E140">
+        <v>12.64</v>
+      </c>
+      <c r="F140">
+        <v>14.18</v>
+      </c>
+      <c r="G140">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H140">
+        <v>11.38</v>
+      </c>
+      <c r="I140">
+        <v>12.42</v>
+      </c>
+      <c r="J140" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K140" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" s="25">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D141" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E141">
+        <v>12.64</v>
+      </c>
+      <c r="F141">
+        <v>14.18</v>
+      </c>
+      <c r="G141">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H141">
+        <v>11.38</v>
+      </c>
+      <c r="I141">
+        <v>12.42</v>
+      </c>
+      <c r="J141" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K141" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" s="25">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D142" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E142">
+        <v>12.64</v>
+      </c>
+      <c r="F142">
+        <v>14.18</v>
+      </c>
+      <c r="G142">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H142">
+        <v>11.38</v>
+      </c>
+      <c r="I142">
+        <v>12.42</v>
+      </c>
+      <c r="J142" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K142" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" s="25">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D143" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E143">
+        <v>12.64</v>
+      </c>
+      <c r="F143">
+        <v>14.18</v>
+      </c>
+      <c r="G143">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H143">
+        <v>11.38</v>
+      </c>
+      <c r="I143">
+        <v>12.42</v>
+      </c>
+      <c r="J143" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K143" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" s="25">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D144" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E144">
+        <v>12.64</v>
+      </c>
+      <c r="F144">
+        <v>14.18</v>
+      </c>
+      <c r="G144">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H144">
+        <v>11.38</v>
+      </c>
+      <c r="I144">
+        <v>12.42</v>
+      </c>
+      <c r="J144" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K144" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" s="25">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>264</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="25">
+        <v>4707</v>
+      </c>
+      <c r="D145" s="27">
+        <v>11.57</v>
+      </c>
+      <c r="E145">
+        <v>12.64</v>
+      </c>
+      <c r="F145">
+        <v>14.18</v>
+      </c>
+      <c r="G145">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H145">
+        <v>11.38</v>
+      </c>
+      <c r="I145">
+        <v>12.42</v>
+      </c>
+      <c r="J145" s="23">
+        <v>42452</v>
+      </c>
+      <c r="K145" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145" s="25">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>